--- a/data/nzd0245/nzd0245.xlsx
+++ b/data/nzd0245/nzd0245.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M319"/>
+  <dimension ref="A1:M324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13295,6 +13295,221 @@
         </is>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="n">
+        <v>349.88</v>
+      </c>
+      <c r="F320" t="n">
+        <v>337.8233333333333</v>
+      </c>
+      <c r="G320" t="n">
+        <v>325.9228571428571</v>
+      </c>
+      <c r="H320" t="n">
+        <v>332.6728571428571</v>
+      </c>
+      <c r="I320" t="n">
+        <v>353.9299999999999</v>
+      </c>
+      <c r="J320" t="n">
+        <v>361.35</v>
+      </c>
+      <c r="K320" t="n">
+        <v>357.39</v>
+      </c>
+      <c r="L320" t="n">
+        <v>359.7788888888889</v>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>402.2342857142857</v>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="n">
+        <v>348.6833333333333</v>
+      </c>
+      <c r="E321" t="n">
+        <v>377.39</v>
+      </c>
+      <c r="F321" t="n">
+        <v>383.0633333333333</v>
+      </c>
+      <c r="G321" t="n">
+        <v>374.5142857142857</v>
+      </c>
+      <c r="H321" t="n">
+        <v>371.7242857142857</v>
+      </c>
+      <c r="I321" t="n">
+        <v>350.51</v>
+      </c>
+      <c r="J321" t="n">
+        <v>380.68</v>
+      </c>
+      <c r="K321" t="n">
+        <v>395.06</v>
+      </c>
+      <c r="L321" t="n">
+        <v>401.9255555555556</v>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>368.7171428571429</v>
+      </c>
+      <c r="C322" t="n">
+        <v>372.6871428571428</v>
+      </c>
+      <c r="D322" t="n">
+        <v>373.3866666666667</v>
+      </c>
+      <c r="E322" t="n">
+        <v>372.78</v>
+      </c>
+      <c r="F322" t="n">
+        <v>366.3166666666667</v>
+      </c>
+      <c r="G322" t="n">
+        <v>361.4571428571429</v>
+      </c>
+      <c r="H322" t="n">
+        <v>367.8371428571429</v>
+      </c>
+      <c r="I322" t="n">
+        <v>383.55</v>
+      </c>
+      <c r="J322" t="n">
+        <v>389.62</v>
+      </c>
+      <c r="K322" t="n">
+        <v>389.28</v>
+      </c>
+      <c r="L322" t="n">
+        <v>365.0377777777778</v>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>364.63</v>
+      </c>
+      <c r="C323" t="n">
+        <v>364.57</v>
+      </c>
+      <c r="D323" t="n">
+        <v>370.1833333333333</v>
+      </c>
+      <c r="E323" t="n">
+        <v>362.7600000000001</v>
+      </c>
+      <c r="F323" t="n">
+        <v>355.9533333333333</v>
+      </c>
+      <c r="G323" t="n">
+        <v>356.96</v>
+      </c>
+      <c r="H323" t="n">
+        <v>356.97</v>
+      </c>
+      <c r="I323" t="n">
+        <v>377.66</v>
+      </c>
+      <c r="J323" t="n">
+        <v>384.22</v>
+      </c>
+      <c r="K323" t="n">
+        <v>376.15</v>
+      </c>
+      <c r="L323" t="n">
+        <v>368.7422222222222</v>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="n">
+        <v>364.5871428571429</v>
+      </c>
+      <c r="D324" t="n">
+        <v>359.83</v>
+      </c>
+      <c r="E324" t="n">
+        <v>362.81</v>
+      </c>
+      <c r="F324" t="n">
+        <v>369.48</v>
+      </c>
+      <c r="G324" t="n">
+        <v>363.4171428571429</v>
+      </c>
+      <c r="H324" t="n">
+        <v>363.6471428571429</v>
+      </c>
+      <c r="I324" t="n">
+        <v>369.45</v>
+      </c>
+      <c r="J324" t="n">
+        <v>368.29</v>
+      </c>
+      <c r="K324" t="n">
+        <v>367.67</v>
+      </c>
+      <c r="L324" t="n">
+        <v>390.3733333333333</v>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13306,7 +13521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B337"/>
+  <dimension ref="A1:B342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16684,6 +16899,56 @@
       </c>
       <c r="B337" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -16852,28 +17117,28 @@
         <v>0.0369</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6460014790237822</v>
+        <v>0.6250168639321431</v>
       </c>
       <c r="J2" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K2" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03665380541827512</v>
+        <v>0.03508372100102841</v>
       </c>
       <c r="M2" t="n">
-        <v>20.85385474459688</v>
+        <v>20.83031914652363</v>
       </c>
       <c r="N2" t="n">
-        <v>612.324569914022</v>
+        <v>608.9881739829287</v>
       </c>
       <c r="O2" t="n">
-        <v>24.74519286475703</v>
+        <v>24.67768575014539</v>
       </c>
       <c r="P2" t="n">
-        <v>370.5714822267965</v>
+        <v>370.764517585934</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -16929,28 +17194,28 @@
         <v>0.0376</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5114192422184205</v>
+        <v>0.5276450775526217</v>
       </c>
       <c r="J3" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K3" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04547413233626052</v>
+        <v>0.04934212676046879</v>
       </c>
       <c r="M3" t="n">
-        <v>14.21486250509006</v>
+        <v>14.12547350215823</v>
       </c>
       <c r="N3" t="n">
-        <v>307.1542488265882</v>
+        <v>304.3293874134675</v>
       </c>
       <c r="O3" t="n">
-        <v>17.52581663793697</v>
+        <v>17.44503904878024</v>
       </c>
       <c r="P3" t="n">
-        <v>347.1453821126196</v>
+        <v>346.9967371449913</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -17006,28 +17271,28 @@
         <v>0.0351</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4334700968574784</v>
+        <v>0.4404617011303685</v>
       </c>
       <c r="J4" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K4" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03060539306563259</v>
+        <v>0.03247863919573535</v>
       </c>
       <c r="M4" t="n">
-        <v>14.85402141657752</v>
+        <v>14.75925570989857</v>
       </c>
       <c r="N4" t="n">
-        <v>329.4977275285379</v>
+        <v>325.974348771469</v>
       </c>
       <c r="O4" t="n">
-        <v>18.15207226540645</v>
+        <v>18.05475972621815</v>
       </c>
       <c r="P4" t="n">
-        <v>349.7023104722265</v>
+        <v>349.6378340087633</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -17083,28 +17348,28 @@
         <v>0.0269</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2837761594973803</v>
+        <v>0.2971448398983673</v>
       </c>
       <c r="J5" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K5" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01107590930140512</v>
+        <v>0.01258701187704503</v>
       </c>
       <c r="M5" t="n">
-        <v>16.19417054958648</v>
+        <v>16.02450111144213</v>
       </c>
       <c r="N5" t="n">
-        <v>392.8061747357104</v>
+        <v>387.0823175338028</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8193384030777</v>
+        <v>19.67440767936364</v>
       </c>
       <c r="P5" t="n">
-        <v>354.4218818191598</v>
+        <v>354.2964954082022</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -17160,28 +17425,28 @@
         <v>0.0307</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3194046272076786</v>
+        <v>0.3187947074138314</v>
       </c>
       <c r="J6" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K6" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01570232584537234</v>
+        <v>0.0161024487781396</v>
       </c>
       <c r="M6" t="n">
-        <v>15.26667925826712</v>
+        <v>15.21227658717184</v>
       </c>
       <c r="N6" t="n">
-        <v>353.4085602905178</v>
+        <v>350.9387517079365</v>
       </c>
       <c r="O6" t="n">
-        <v>18.79916381891806</v>
+        <v>18.73335932789249</v>
       </c>
       <c r="P6" t="n">
-        <v>354.6262285178557</v>
+        <v>354.6314084551582</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -17237,28 +17502,28 @@
         <v>0.0359</v>
       </c>
       <c r="I7" t="n">
-        <v>0.383649451410608</v>
+        <v>0.368361028750237</v>
       </c>
       <c r="J7" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K7" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02616653195152863</v>
+        <v>0.02468444630936784</v>
       </c>
       <c r="M7" t="n">
-        <v>13.36892003689618</v>
+        <v>13.33377511607948</v>
       </c>
       <c r="N7" t="n">
-        <v>297.3816661991117</v>
+        <v>297.1391125339306</v>
       </c>
       <c r="O7" t="n">
-        <v>17.24475764396565</v>
+        <v>17.23772353107946</v>
       </c>
       <c r="P7" t="n">
-        <v>351.1086639810306</v>
+        <v>351.2524752811369</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -17314,28 +17579,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09168903932395972</v>
+        <v>0.08609971764966615</v>
       </c>
       <c r="J8" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K8" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001611230312336454</v>
+        <v>0.001458788795212995</v>
       </c>
       <c r="M8" t="n">
-        <v>13.33262185755893</v>
+        <v>13.28548758816741</v>
       </c>
       <c r="N8" t="n">
-        <v>283.8925944762703</v>
+        <v>282.2210612481542</v>
       </c>
       <c r="O8" t="n">
-        <v>16.84911257236625</v>
+        <v>16.79943633721543</v>
       </c>
       <c r="P8" t="n">
-        <v>357.8558938221554</v>
+        <v>357.9082423883173</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -17391,28 +17656,28 @@
         <v>0.0285</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.137813555140167</v>
+        <v>-0.1360866650105119</v>
       </c>
       <c r="J9" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K9" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002479476130600622</v>
+        <v>0.002492278317843488</v>
       </c>
       <c r="M9" t="n">
-        <v>16.44908920781921</v>
+        <v>16.3647508841084</v>
       </c>
       <c r="N9" t="n">
-        <v>411.8151059451317</v>
+        <v>407.3415125175175</v>
       </c>
       <c r="O9" t="n">
-        <v>20.29322808094197</v>
+        <v>20.18270330053726</v>
       </c>
       <c r="P9" t="n">
-        <v>370.0505229020612</v>
+        <v>370.0332911835429</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -17468,28 +17733,28 @@
         <v>0.0256</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09040085956428388</v>
+        <v>0.1186733368000063</v>
       </c>
       <c r="J10" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K10" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001092899423745797</v>
+        <v>0.001943887377026221</v>
       </c>
       <c r="M10" t="n">
-        <v>15.96791011005542</v>
+        <v>15.87075364461936</v>
       </c>
       <c r="N10" t="n">
-        <v>402.4098176876383</v>
+        <v>397.7860036012214</v>
       </c>
       <c r="O10" t="n">
-        <v>20.06015497666053</v>
+        <v>19.94457328701774</v>
       </c>
       <c r="P10" t="n">
-        <v>366.9186798254505</v>
+        <v>366.6475580746616</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -17545,28 +17810,28 @@
         <v>0.0302</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1525264151246527</v>
+        <v>-0.1192963049554288</v>
       </c>
       <c r="J11" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K11" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003399386806014371</v>
+        <v>0.002142238897806736</v>
       </c>
       <c r="M11" t="n">
-        <v>15.47254320022811</v>
+        <v>15.43777176961366</v>
       </c>
       <c r="N11" t="n">
-        <v>367.5553526606335</v>
+        <v>365.4242488141218</v>
       </c>
       <c r="O11" t="n">
-        <v>19.17173316788635</v>
+        <v>19.11607304898477</v>
       </c>
       <c r="P11" t="n">
-        <v>372.3215241507193</v>
+        <v>372.0060896213274</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -17622,28 +17887,28 @@
         <v>0.051</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2851849273631767</v>
+        <v>-0.1876262831485679</v>
       </c>
       <c r="J12" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K12" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008981451440769672</v>
+        <v>0.003972407669415978</v>
       </c>
       <c r="M12" t="n">
-        <v>16.83608609324855</v>
+        <v>16.90663982483798</v>
       </c>
       <c r="N12" t="n">
-        <v>495.882486040703</v>
+        <v>500.3924271449259</v>
       </c>
       <c r="O12" t="n">
-        <v>22.26841902876589</v>
+        <v>22.36945299163406</v>
       </c>
       <c r="P12" t="n">
-        <v>363.2197239583621</v>
+        <v>362.2992291764926</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -17680,7 +17945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M319"/>
+  <dimension ref="A1:M324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36025,6 +36290,321 @@
         </is>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-38.10047954938351,174.76366870093983</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-38.099883885360995,174.76417443075195</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>-38.09928763575092,174.7646785358125</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>-38.09862220180046,174.76498884510448</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>-38.097902952740604,174.76514841572921</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>-38.0972350230854,174.76545176682572</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>-38.09660929834792,174.76587336365392</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>-38.095960018924615,174.76622899186884</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-38.102206470364294,174.7619833259035</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-38.10112436774275,174.76330068635116</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-38.10037750690436,174.76338284359855</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-38.09971607829146,174.76370434386976</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-38.099107398817225,174.7641736277794</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-38.098477351677374,174.76458306934973</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>-38.09791563818399,174.76518395200515</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>-38.09716332441791,174.76525091605683</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>-38.09646957369846,174.76548195206297</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>-38.095803690210836,174.76579106888715</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-38.10233079781376,174.76233161100464</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-38.10167570379584,174.7626708088117</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-38.10103273554961,174.76304399112658</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-38.100394606766386,174.76343074621064</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-38.09977819631276,174.76387835751444</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-38.09915583102306,174.76430930283541</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>-38.09849176998858,174.76462345982085</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>-38.09779308595159,174.7648406429857</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>-38.097130164128146,174.76515802400422</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>-38.09649101282142,174.76554200928217</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>-38.09594051295824,174.76617434952905</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-38.102345958461825,174.76237408161748</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-38.101705812977656,174.76275515558157</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-38.10104461772199,174.7630772773025</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-38.10043177385912,174.76353486432745</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-38.099816636651056,174.76398604245526</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>-38.09917251201236,174.76435603209634</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>-38.09853207865693,174.76473637806302</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>-38.09781493326246,174.76490184417892</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>-38.097150193842424,174.76521413328797</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>-38.0965397143794,174.76567843696753</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>-38.09592677263151,174.7661358586183</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-38.10170574938916,174.7627549774468</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-38.10108302143007,174.76318485995748</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-38.10043158839482,174.76353434477574</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-38.09976646265433,174.76384548747876</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>-38.09914856090356,174.76428893672178</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>-38.09850731165088,174.76466699723318</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>-38.09784538591091,174.76498715184357</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>-38.097209281338635,174.7653796558487</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>-38.09657116815485,174.76576654877266</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>-38.09584653941434,174.76591110153475</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0245/nzd0245.xlsx
+++ b/data/nzd0245/nzd0245.xlsx
@@ -16962,7 +16962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17053,35 +17053,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -17140,27 +17145,28 @@
       <c r="P2" t="n">
         <v>370.764517585934</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.76616311984176 -38.10369843547909, 174.75665657651757 -38.10030479512465)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7661631198418</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.10369843547909</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7566565765176</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.10030479512465</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7614098481797</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.10200161530187</v>
       </c>
     </row>
@@ -17217,27 +17223,28 @@
       <c r="P3" t="n">
         <v>346.9967371449913</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.76654354101697 -38.10305805996129, 174.75703704243568 -38.099664428078455)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.766543541017</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.10305805996129</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7570370424357</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.09966442807846</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7617902917263</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.10136124401987</v>
       </c>
     </row>
@@ -17294,27 +17301,28 @@
       <c r="P4" t="n">
         <v>349.6378340087633</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.76692396219232 -38.10241767883122, 174.7574175083535 -38.099024055419505)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7669239621923</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.10241767883122</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7574175083535</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.09902405541951</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7621707352729</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.10072086712536</v>
       </c>
     </row>
@@ -17371,27 +17379,28 @@
       <c r="P5" t="n">
         <v>354.2964954082022</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.7673043833679 -38.10177729208898, 174.757797974271 -38.09838367714789)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7673043833679</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.10177729208898</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.757797974271</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.09838367714789</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7625511788195</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.10008048461844</v>
       </c>
     </row>
@@ -17448,27 +17457,28 @@
       <c r="P6" t="n">
         <v>354.6314084551582</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.76768480454362 -38.10113689973448, 174.7581784401882 -38.0977432932637)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7676848045436</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.10113689973448</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7581784401882</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.0977432932637</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7629316223659</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.09944009649909</v>
       </c>
     </row>
@@ -17525,27 +17535,28 @@
       <c r="P7" t="n">
         <v>351.2524752811369</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.76806522571945 -38.10049650176785, 174.7585589061051 -38.09710290376696)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7680652257195</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.10049650176785</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7585589061051</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.09710290376696</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7633120659123</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.09879970276741</v>
       </c>
     </row>
@@ -17602,27 +17613,28 @@
       <c r="P8" t="n">
         <v>357.9082423883173</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.76844564689537 -38.09985609818903, 174.7589393720217 -38.096462508657616)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7684456468954</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.09985609818903</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.7589393720217</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.09646250865762</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7636925094585</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.09815930342332</v>
       </c>
     </row>
@@ -17679,27 +17691,28 @@
       <c r="P9" t="n">
         <v>370.0332911835429</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.76882606807166 -38.09921568899814, 174.75931983793794 -38.09582210793578)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.7688260680717</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.09921568899814</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.7593198379379</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.09582210793578</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.7640729530048</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.09751889846696</v>
       </c>
     </row>
@@ -17756,27 +17769,28 @@
       <c r="P10" t="n">
         <v>366.6475580746616</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.76920648924798 -38.09857527419527, 174.759700303854 -38.09518170160134)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.769206489248</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.09857527419527</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.759700303854</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.09518170160134</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.764453396551</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.09687848789831</v>
       </c>
     </row>
@@ -17833,27 +17847,28 @@
       <c r="P11" t="n">
         <v>372.0060896213274</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.76958691042447 -38.09793485378016, 174.76008076976953 -38.09454128965468)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.7695869104245</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.09793485378016</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.7600807697695</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.09454128965468</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.764833840097</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.09623807171742</v>
       </c>
     </row>
@@ -17910,27 +17925,28 @@
       <c r="P12" t="n">
         <v>362.2992291764926</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.76996733160107 -38.09729442775308, 174.7604612356848 -38.09390087209552)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.7699673316011</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.09729442775308</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.7604612356848</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.09390087209552</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.7652142836429</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.0955976499243</v>
       </c>
     </row>

--- a/data/nzd0245/nzd0245.xlsx
+++ b/data/nzd0245/nzd0245.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M324"/>
+  <dimension ref="A1:M327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13473,7 +13473,9 @@
           <t>2025-02-07 22:06:05+00:00</t>
         </is>
       </c>
-      <c r="B324" t="inlineStr"/>
+      <c r="B324" t="n">
+        <v>411.1071428571428</v>
+      </c>
       <c r="C324" t="n">
         <v>364.5871428571429</v>
       </c>
@@ -13505,6 +13507,141 @@
         <v>390.3733333333333</v>
       </c>
       <c r="M324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>418.0714285714286</v>
+      </c>
+      <c r="C325" t="n">
+        <v>372.2214285714285</v>
+      </c>
+      <c r="D325" t="n">
+        <v>371.79</v>
+      </c>
+      <c r="E325" t="n">
+        <v>373.91</v>
+      </c>
+      <c r="F325" t="n">
+        <v>374.76</v>
+      </c>
+      <c r="G325" t="n">
+        <v>375.8414285714285</v>
+      </c>
+      <c r="H325" t="n">
+        <v>377.9814285714286</v>
+      </c>
+      <c r="I325" t="n">
+        <v>374.48</v>
+      </c>
+      <c r="J325" t="n">
+        <v>379.38</v>
+      </c>
+      <c r="K325" t="n">
+        <v>373.32</v>
+      </c>
+      <c r="L325" t="n">
+        <v>374.1033333333333</v>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>409.8</v>
+      </c>
+      <c r="C326" t="n">
+        <v>355.67</v>
+      </c>
+      <c r="D326" t="n">
+        <v>351.3866666666667</v>
+      </c>
+      <c r="E326" t="n">
+        <v>354.18</v>
+      </c>
+      <c r="F326" t="n">
+        <v>355.2866666666667</v>
+      </c>
+      <c r="G326" t="n">
+        <v>361.22</v>
+      </c>
+      <c r="H326" t="n">
+        <v>362.16</v>
+      </c>
+      <c r="I326" t="n">
+        <v>366.09</v>
+      </c>
+      <c r="J326" t="n">
+        <v>369.55</v>
+      </c>
+      <c r="K326" t="n">
+        <v>375.2000000000001</v>
+      </c>
+      <c r="L326" t="n">
+        <v>367.3611111111111</v>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="C327" t="n">
+        <v>368.76</v>
+      </c>
+      <c r="D327" t="n">
+        <v>374.1733333333333</v>
+      </c>
+      <c r="E327" t="n">
+        <v>368.9</v>
+      </c>
+      <c r="F327" t="n">
+        <v>362.9133333333333</v>
+      </c>
+      <c r="G327" t="n">
+        <v>364.08</v>
+      </c>
+      <c r="H327" t="n">
+        <v>363.53</v>
+      </c>
+      <c r="I327" t="n">
+        <v>382.17</v>
+      </c>
+      <c r="J327" t="n">
+        <v>383.25</v>
+      </c>
+      <c r="K327" t="n">
+        <v>387.42</v>
+      </c>
+      <c r="L327" t="n">
+        <v>369.4555555555555</v>
+      </c>
+      <c r="M327" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -13521,7 +13658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:B345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16949,6 +17086,36 @@
       </c>
       <c r="B342" t="n">
         <v>-0.39</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>
@@ -17122,28 +17289,28 @@
         <v>0.0369</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6250168639321431</v>
+        <v>0.677318992041995</v>
       </c>
       <c r="J2" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K2" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03508372100102841</v>
+        <v>0.04176568571118899</v>
       </c>
       <c r="M2" t="n">
-        <v>20.83031914652363</v>
+        <v>20.84705821845334</v>
       </c>
       <c r="N2" t="n">
-        <v>608.9881739829287</v>
+        <v>608.1271757824883</v>
       </c>
       <c r="O2" t="n">
-        <v>24.67768575014539</v>
+        <v>24.6602347065572</v>
       </c>
       <c r="P2" t="n">
-        <v>370.764517585934</v>
+        <v>370.2825393628479</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17200,28 +17367,28 @@
         <v>0.0376</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5276450775526217</v>
+        <v>0.5389152057021177</v>
       </c>
       <c r="J3" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K3" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04934212676046879</v>
+        <v>0.05245473850005689</v>
       </c>
       <c r="M3" t="n">
-        <v>14.12547350215823</v>
+        <v>14.05274354058177</v>
       </c>
       <c r="N3" t="n">
-        <v>304.3293874134675</v>
+        <v>301.7046851338196</v>
       </c>
       <c r="O3" t="n">
-        <v>17.44503904878024</v>
+        <v>17.36964838831862</v>
       </c>
       <c r="P3" t="n">
-        <v>346.9967371449913</v>
+        <v>346.8927831058187</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17278,28 +17445,28 @@
         <v>0.0351</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4404617011303685</v>
+        <v>0.4512301636581215</v>
       </c>
       <c r="J4" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K4" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03247863919573535</v>
+        <v>0.03470457485309719</v>
       </c>
       <c r="M4" t="n">
-        <v>14.75925570989857</v>
+        <v>14.71601728066231</v>
       </c>
       <c r="N4" t="n">
-        <v>325.974348771469</v>
+        <v>323.7313309164132</v>
       </c>
       <c r="O4" t="n">
-        <v>18.05475972621815</v>
+        <v>17.99253542212473</v>
       </c>
       <c r="P4" t="n">
-        <v>349.6378340087633</v>
+        <v>349.5379413249537</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17356,28 +17523,28 @@
         <v>0.0269</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2971448398983673</v>
+        <v>0.3055733009065025</v>
       </c>
       <c r="J5" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K5" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01258701187704503</v>
+        <v>0.01359511617239328</v>
       </c>
       <c r="M5" t="n">
-        <v>16.02450111144213</v>
+        <v>15.93376454558166</v>
       </c>
       <c r="N5" t="n">
-        <v>387.0823175338028</v>
+        <v>383.5448930715214</v>
       </c>
       <c r="O5" t="n">
-        <v>19.67440767936364</v>
+        <v>19.5843022104828</v>
       </c>
       <c r="P5" t="n">
-        <v>354.2964954082022</v>
+        <v>354.2169894879178</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17434,28 +17601,28 @@
         <v>0.0307</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3187947074138314</v>
+        <v>0.3221811905348929</v>
       </c>
       <c r="J6" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K6" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0161024487781396</v>
+        <v>0.01680430509819741</v>
       </c>
       <c r="M6" t="n">
-        <v>15.21227658717184</v>
+        <v>15.10904526909585</v>
       </c>
       <c r="N6" t="n">
-        <v>350.9387517079365</v>
+        <v>347.6337509952042</v>
       </c>
       <c r="O6" t="n">
-        <v>18.73335932789249</v>
+        <v>18.64493901827529</v>
       </c>
       <c r="P6" t="n">
-        <v>354.6314084551582</v>
+        <v>354.5999526161171</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17512,28 +17679,28 @@
         <v>0.0359</v>
       </c>
       <c r="I7" t="n">
-        <v>0.368361028750237</v>
+        <v>0.3816329562141939</v>
       </c>
       <c r="J7" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K7" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02468444630936784</v>
+        <v>0.02696432150408934</v>
       </c>
       <c r="M7" t="n">
-        <v>13.33377511607948</v>
+        <v>13.25122057309728</v>
       </c>
       <c r="N7" t="n">
-        <v>297.1391125339306</v>
+        <v>294.777508094334</v>
       </c>
       <c r="O7" t="n">
-        <v>17.23772353107946</v>
+        <v>17.16908582581886</v>
       </c>
       <c r="P7" t="n">
-        <v>351.2524752811369</v>
+        <v>351.1261893223759</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17590,28 +17757,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08609971764966615</v>
+        <v>0.1023141734699773</v>
       </c>
       <c r="J8" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K8" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001458788795212995</v>
+        <v>0.002097014430821442</v>
       </c>
       <c r="M8" t="n">
-        <v>13.28548758816741</v>
+        <v>13.21562193480892</v>
       </c>
       <c r="N8" t="n">
-        <v>282.2210612481542</v>
+        <v>280.320574422535</v>
       </c>
       <c r="O8" t="n">
-        <v>16.79943633721543</v>
+        <v>16.7427767835128</v>
       </c>
       <c r="P8" t="n">
-        <v>357.9082423883173</v>
+        <v>357.7536588700646</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17668,28 +17835,28 @@
         <v>0.0285</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1360866650105119</v>
+        <v>-0.1202344802180852</v>
       </c>
       <c r="J9" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K9" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002492278317843488</v>
+        <v>0.001984699623194253</v>
       </c>
       <c r="M9" t="n">
-        <v>16.3647508841084</v>
+        <v>16.25767819158147</v>
       </c>
       <c r="N9" t="n">
-        <v>407.3415125175175</v>
+        <v>404.0037550742005</v>
       </c>
       <c r="O9" t="n">
-        <v>20.18270330053726</v>
+        <v>20.09984465298676</v>
       </c>
       <c r="P9" t="n">
-        <v>370.0332911835429</v>
+        <v>369.8795379187669</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17746,28 +17913,28 @@
         <v>0.0256</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1186733368000063</v>
+        <v>0.135516127592399</v>
       </c>
       <c r="J10" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K10" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001943887377026221</v>
+        <v>0.002586685912820186</v>
       </c>
       <c r="M10" t="n">
-        <v>15.87075364461936</v>
+        <v>15.77502630606763</v>
       </c>
       <c r="N10" t="n">
-        <v>397.7860036012214</v>
+        <v>394.257170905853</v>
       </c>
       <c r="O10" t="n">
-        <v>19.94457328701774</v>
+        <v>19.85591022607256</v>
       </c>
       <c r="P10" t="n">
-        <v>366.6475580746616</v>
+        <v>366.4846926035188</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17824,28 +17991,28 @@
         <v>0.0302</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1192963049554288</v>
+        <v>-0.09738566185398051</v>
       </c>
       <c r="J11" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K11" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002142238897806736</v>
+        <v>0.001458224760051086</v>
       </c>
       <c r="M11" t="n">
-        <v>15.43777176961366</v>
+        <v>15.37054232080983</v>
       </c>
       <c r="N11" t="n">
-        <v>365.4242488141218</v>
+        <v>362.6487691542172</v>
       </c>
       <c r="O11" t="n">
-        <v>19.11607304898477</v>
+        <v>19.04333923329144</v>
       </c>
       <c r="P11" t="n">
-        <v>372.0060896213274</v>
+        <v>371.7960389857336</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -17902,28 +18069,28 @@
         <v>0.051</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1876262831485679</v>
+        <v>-0.1532922752817147</v>
       </c>
       <c r="J12" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K12" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003972407669415978</v>
+        <v>0.002719857231428868</v>
       </c>
       <c r="M12" t="n">
-        <v>16.90663982483798</v>
+        <v>16.83638904581464</v>
       </c>
       <c r="N12" t="n">
-        <v>500.3924271449259</v>
+        <v>495.4527321914134</v>
       </c>
       <c r="O12" t="n">
-        <v>22.36945299163406</v>
+        <v>22.25876753531995</v>
       </c>
       <c r="P12" t="n">
-        <v>362.2992291764926</v>
+        <v>361.9726299140838</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -17961,7 +18128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M324"/>
+  <dimension ref="A1:M327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36564,7 +36731,11 @@
           <t>2025-02-07 22:06:05+00:00</t>
         </is>
       </c>
-      <c r="B324" t="inlineStr"/>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-38.1021735574852,174.76189112599508</t>
+        </is>
+      </c>
       <c r="C324" t="inlineStr">
         <is>
           <t>-38.10170574938916,174.7627549774468</t>
@@ -36616,6 +36787,207 @@
         </is>
       </c>
       <c r="M324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-38.10214772418783,174.76181875854968</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-38.10167743128666,174.76267564813529</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-38.10103865809044,174.7630605822577</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>-38.10039041526195,174.7634190043536</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>-38.099746877685945,174.7637906232903</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>-38.09910247610366,174.7641598376221</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>-38.098454142458394,174.7645180527473</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>-38.09782672857115,174.76493488660358</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>-38.09716814637769,174.7652644238565</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>-38.0965502113427,174.7657078421962</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>-38.0959068874626,174.76608015419075</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-38.10217840619127,174.76190470881343</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-38.10173882596519,174.76284763724584</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-38.101114340283594,174.76327259566804</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-38.10046359949766,174.76362401944323</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>-38.099819109490184,174.76399296976305</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>-38.09915671064369,174.76431176695726</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>-38.09851282779772,174.76468244982738</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>-38.09785784885216,174.76502206462266</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>-38.097204607760126,174.7653665636593</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>-38.09654323809584,174.76568830797976</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>-38.09593189537632,174.76615020900718</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-38.1023119436897,174.76227879367775</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-38.10169027088227,174.762711616489</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-38.101029817553666,174.76303581679153</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-38.10040899882556,174.76347106339338</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>-38.09979082018548,174.7639137213893</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>-38.099146102203434,174.7642820490574</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>-38.09850774616012,174.7646682144403</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>-38.097798204679314,174.76485498214151</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>-38.09715379176966,174.76522421218098</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>-38.09649791190964,174.765561335661</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>-38.09592412677226,174.76612844675287</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0245/nzd0245.xlsx
+++ b/data/nzd0245/nzd0245.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M327"/>
+  <dimension ref="A1:M328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13647,6 +13647,51 @@
         </is>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>370.0271428571429</v>
+      </c>
+      <c r="C328" t="n">
+        <v>366.6871428571428</v>
+      </c>
+      <c r="D328" t="n">
+        <v>378.14</v>
+      </c>
+      <c r="E328" t="n">
+        <v>372.4</v>
+      </c>
+      <c r="F328" t="n">
+        <v>357.66</v>
+      </c>
+      <c r="G328" t="n">
+        <v>363.9671428571429</v>
+      </c>
+      <c r="H328" t="n">
+        <v>365.9871428571428</v>
+      </c>
+      <c r="I328" t="n">
+        <v>385.14</v>
+      </c>
+      <c r="J328" t="n">
+        <v>371.18</v>
+      </c>
+      <c r="K328" t="n">
+        <v>376.58</v>
+      </c>
+      <c r="L328" t="n">
+        <v>361.61</v>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13658,7 +13703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B345"/>
+  <dimension ref="A1:B346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17116,6 +17161,16 @@
       </c>
       <c r="B345" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>
@@ -17289,28 +17344,28 @@
         <v>0.0369</v>
       </c>
       <c r="I2" t="n">
-        <v>0.677318992041995</v>
+        <v>0.6633194482036794</v>
       </c>
       <c r="J2" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K2" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04176568571118899</v>
+        <v>0.04038621958594213</v>
       </c>
       <c r="M2" t="n">
-        <v>20.84705821845334</v>
+        <v>20.83761165967376</v>
       </c>
       <c r="N2" t="n">
-        <v>608.1271757824883</v>
+        <v>606.8616452375461</v>
       </c>
       <c r="O2" t="n">
-        <v>24.6602347065572</v>
+        <v>24.63456200620474</v>
       </c>
       <c r="P2" t="n">
-        <v>370.2825393628479</v>
+        <v>370.4128506944792</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17367,28 +17422,28 @@
         <v>0.0376</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5389152057021177</v>
+        <v>0.5433266307537759</v>
       </c>
       <c r="J3" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K3" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05245473850005689</v>
+        <v>0.05366619166848807</v>
       </c>
       <c r="M3" t="n">
-        <v>14.05274354058177</v>
+        <v>14.01953950890244</v>
       </c>
       <c r="N3" t="n">
-        <v>301.7046851338196</v>
+        <v>300.6887036127684</v>
       </c>
       <c r="O3" t="n">
-        <v>17.36964838831862</v>
+        <v>17.34037783938886</v>
       </c>
       <c r="P3" t="n">
-        <v>346.8927831058187</v>
+        <v>346.851836748353</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17445,28 +17500,28 @@
         <v>0.0351</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4512301636581215</v>
+        <v>0.4636411873334525</v>
       </c>
       <c r="J4" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K4" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03470457485309719</v>
+        <v>0.0367391669154985</v>
       </c>
       <c r="M4" t="n">
-        <v>14.71601728066231</v>
+        <v>14.72018657513218</v>
       </c>
       <c r="N4" t="n">
-        <v>323.7313309164132</v>
+        <v>323.5940300067863</v>
       </c>
       <c r="O4" t="n">
-        <v>17.99253542212473</v>
+        <v>17.98871952104391</v>
       </c>
       <c r="P4" t="n">
-        <v>349.5379413249537</v>
+        <v>349.4222416826502</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17523,28 +17578,28 @@
         <v>0.0269</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3055733009065025</v>
+        <v>0.3132558196899904</v>
       </c>
       <c r="J5" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K5" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01359511617239328</v>
+        <v>0.01437708386104186</v>
       </c>
       <c r="M5" t="n">
-        <v>15.93376454558166</v>
+        <v>15.90463241817299</v>
       </c>
       <c r="N5" t="n">
-        <v>383.5448930715214</v>
+        <v>382.4692428087059</v>
       </c>
       <c r="O5" t="n">
-        <v>19.5843022104828</v>
+        <v>19.55682087683747</v>
       </c>
       <c r="P5" t="n">
-        <v>354.2169894879178</v>
+        <v>354.1440077999866</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17601,28 +17656,28 @@
         <v>0.0307</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3221811905348929</v>
+        <v>0.3183771278632795</v>
       </c>
       <c r="J6" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K6" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01680430509819741</v>
+        <v>0.01654218933733909</v>
       </c>
       <c r="M6" t="n">
-        <v>15.10904526909585</v>
+        <v>15.07317578513227</v>
       </c>
       <c r="N6" t="n">
-        <v>347.6337509952042</v>
+        <v>346.3942709407752</v>
       </c>
       <c r="O6" t="n">
-        <v>18.64493901827529</v>
+        <v>18.61167028884767</v>
       </c>
       <c r="P6" t="n">
-        <v>354.5999526161171</v>
+        <v>354.6358014471991</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17679,28 +17734,28 @@
         <v>0.0359</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3816329562141939</v>
+        <v>0.3837594744747578</v>
       </c>
       <c r="J7" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K7" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02696432150408934</v>
+        <v>0.02745506243460871</v>
       </c>
       <c r="M7" t="n">
-        <v>13.25122057309728</v>
+        <v>13.21319827411087</v>
       </c>
       <c r="N7" t="n">
-        <v>294.777508094334</v>
+        <v>293.7469652869243</v>
       </c>
       <c r="O7" t="n">
-        <v>17.16908582581886</v>
+        <v>17.13904796909456</v>
       </c>
       <c r="P7" t="n">
-        <v>351.1261893223759</v>
+        <v>351.1058007727794</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17757,28 +17812,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1023141734699773</v>
+        <v>0.1062216294792948</v>
       </c>
       <c r="J8" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K8" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002097014430821442</v>
+        <v>0.002275985134472247</v>
       </c>
       <c r="M8" t="n">
-        <v>13.21562193480892</v>
+        <v>13.18534165882286</v>
       </c>
       <c r="N8" t="n">
-        <v>280.320574422535</v>
+        <v>279.4079121352338</v>
       </c>
       <c r="O8" t="n">
-        <v>16.7427767835128</v>
+        <v>16.71549915902106</v>
       </c>
       <c r="P8" t="n">
-        <v>357.7536588700646</v>
+        <v>357.7161178741898</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17835,28 +17890,28 @@
         <v>0.0285</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1202344802180852</v>
+        <v>-0.1076551745659226</v>
       </c>
       <c r="J9" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K9" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001984699623194253</v>
+        <v>0.001598678600531978</v>
       </c>
       <c r="M9" t="n">
-        <v>16.25767819158147</v>
+        <v>16.25257086129039</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0037550742005</v>
+        <v>403.7461942670953</v>
       </c>
       <c r="O9" t="n">
-        <v>20.09984465298676</v>
+        <v>20.09343659673714</v>
       </c>
       <c r="P9" t="n">
-        <v>369.8795379187669</v>
+        <v>369.7569835514241</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17913,28 +17968,28 @@
         <v>0.0256</v>
       </c>
       <c r="I10" t="n">
-        <v>0.135516127592399</v>
+        <v>0.1364052773698077</v>
       </c>
       <c r="J10" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K10" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002586685912820186</v>
+        <v>0.002640998034769915</v>
       </c>
       <c r="M10" t="n">
-        <v>15.77502630606763</v>
+        <v>15.71928560880501</v>
       </c>
       <c r="N10" t="n">
-        <v>394.257170905853</v>
+        <v>392.7580387354539</v>
       </c>
       <c r="O10" t="n">
-        <v>19.85591022607256</v>
+        <v>19.81812399636893</v>
       </c>
       <c r="P10" t="n">
-        <v>366.4846926035188</v>
+        <v>366.4760514566001</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17991,28 +18046,28 @@
         <v>0.0302</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.09738566185398051</v>
+        <v>-0.09192265344515638</v>
       </c>
       <c r="J11" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K11" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001458224760051086</v>
+        <v>0.001309303053029343</v>
       </c>
       <c r="M11" t="n">
-        <v>15.37054232080983</v>
+        <v>15.33888135173876</v>
       </c>
       <c r="N11" t="n">
-        <v>362.6487691542172</v>
+        <v>361.436571235277</v>
       </c>
       <c r="O11" t="n">
-        <v>19.04333923329144</v>
+        <v>19.01148524537936</v>
       </c>
       <c r="P11" t="n">
-        <v>371.7960389857336</v>
+        <v>371.7434631404839</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -18069,28 +18124,28 @@
         <v>0.051</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1532922752817147</v>
+        <v>-0.1501153131557765</v>
       </c>
       <c r="J12" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K12" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002719857231428868</v>
+        <v>0.002633115269337405</v>
       </c>
       <c r="M12" t="n">
-        <v>16.83638904581464</v>
+        <v>16.77056224898823</v>
       </c>
       <c r="N12" t="n">
-        <v>495.4527321914134</v>
+        <v>493.0969077341251</v>
       </c>
       <c r="O12" t="n">
-        <v>22.25876753531995</v>
+        <v>22.20578545636531</v>
       </c>
       <c r="P12" t="n">
-        <v>361.9726299140838</v>
+        <v>361.9422167593472</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -18128,7 +18183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M327"/>
+  <dimension ref="A1:M328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36993,6 +37048,73 @@
         </is>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-38.10232593856039,174.76231799844203</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-38.10169795979686,174.76273315594239</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-38.1010151039211,174.7629945987558</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-38.10039601629858,174.76343469480003</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-38.09981030618099,174.76396830854947</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-38.09914652081836,174.7642832217416</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>-38.09849863206109,174.76464268278113</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>-38.09778718828477,174.7648241217868</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>-38.09719856177934,174.76534962694052</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>-38.096538119433774,174.76567396903596</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>-38.0959532270762,174.7662099657562</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0245/nzd0245.xlsx
+++ b/data/nzd0245/nzd0245.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M328"/>
+  <dimension ref="A1:M330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13692,6 +13692,72 @@
         </is>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>404.39</v>
+      </c>
+      <c r="C329" t="inlineStr"/>
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="n">
+        <v>361.27</v>
+      </c>
+      <c r="F329" t="n">
+        <v>334.7166666666667</v>
+      </c>
+      <c r="G329" t="n">
+        <v>336.4</v>
+      </c>
+      <c r="H329" t="n">
+        <v>330.78</v>
+      </c>
+      <c r="I329" t="n">
+        <v>345.94</v>
+      </c>
+      <c r="J329" t="n">
+        <v>344.29</v>
+      </c>
+      <c r="K329" t="n">
+        <v>343.18</v>
+      </c>
+      <c r="L329" t="n">
+        <v>333.1777777777777</v>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>354.2733333333333</v>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13703,7 +13769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B346"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17171,6 +17237,26 @@
       </c>
       <c r="B346" t="n">
         <v>1.71</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -17344,28 +17430,28 @@
         <v>0.0369</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6633194482036794</v>
+        <v>0.676723194656165</v>
       </c>
       <c r="J2" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K2" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04038621958594213</v>
+        <v>0.04224373022394023</v>
       </c>
       <c r="M2" t="n">
-        <v>20.83761165967376</v>
+        <v>20.81635839058062</v>
       </c>
       <c r="N2" t="n">
-        <v>606.8616452375461</v>
+        <v>605.5125956366132</v>
       </c>
       <c r="O2" t="n">
-        <v>24.63456200620474</v>
+        <v>24.60716553438476</v>
       </c>
       <c r="P2" t="n">
-        <v>370.4128506944792</v>
+        <v>370.2875299826696</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17425,7 +17511,7 @@
         <v>0.5433266307537759</v>
       </c>
       <c r="J3" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K3" t="n">
         <v>262</v>
@@ -17503,7 +17589,7 @@
         <v>0.4636411873334525</v>
       </c>
       <c r="J4" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K4" t="n">
         <v>266</v>
@@ -17578,28 +17664,28 @@
         <v>0.0269</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3132558196899904</v>
+        <v>0.3125746268348825</v>
       </c>
       <c r="J5" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K5" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01437708386104186</v>
+        <v>0.01443061822841718</v>
       </c>
       <c r="M5" t="n">
-        <v>15.90463241817299</v>
+        <v>15.84740523858244</v>
       </c>
       <c r="N5" t="n">
-        <v>382.4692428087059</v>
+        <v>380.9957718287856</v>
       </c>
       <c r="O5" t="n">
-        <v>19.55682087683747</v>
+        <v>19.51911298775602</v>
       </c>
       <c r="P5" t="n">
-        <v>354.1440077999866</v>
+        <v>354.1505073765234</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17656,28 +17742,28 @@
         <v>0.0307</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3183771278632795</v>
+        <v>0.2978592691156899</v>
       </c>
       <c r="J6" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K6" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01654218933733909</v>
+        <v>0.01450022527287476</v>
       </c>
       <c r="M6" t="n">
-        <v>15.07317578513227</v>
+        <v>15.13499320153313</v>
       </c>
       <c r="N6" t="n">
-        <v>346.3942709407752</v>
+        <v>348.0627238382936</v>
       </c>
       <c r="O6" t="n">
-        <v>18.61167028884767</v>
+        <v>18.65643920576201</v>
       </c>
       <c r="P6" t="n">
-        <v>354.6358014471991</v>
+        <v>354.8300188125687</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17734,28 +17820,28 @@
         <v>0.0359</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3837594744747578</v>
+        <v>0.366793077084454</v>
       </c>
       <c r="J7" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K7" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02745506243460871</v>
+        <v>0.0251467752829152</v>
       </c>
       <c r="M7" t="n">
-        <v>13.21319827411087</v>
+        <v>13.26305666060976</v>
       </c>
       <c r="N7" t="n">
-        <v>293.7469652869243</v>
+        <v>294.8369462928599</v>
       </c>
       <c r="O7" t="n">
-        <v>17.13904796909456</v>
+        <v>17.17081670430559</v>
       </c>
       <c r="P7" t="n">
-        <v>351.1058007727794</v>
+        <v>351.2691816011844</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17812,28 +17898,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1062216294792948</v>
+        <v>0.08563652111160121</v>
       </c>
       <c r="J8" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K8" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002275985134472247</v>
+        <v>0.00147488142496266</v>
       </c>
       <c r="M8" t="n">
-        <v>13.18534165882286</v>
+        <v>13.25703282598903</v>
       </c>
       <c r="N8" t="n">
-        <v>279.4079121352338</v>
+        <v>281.5641816941921</v>
       </c>
       <c r="O8" t="n">
-        <v>16.71549915902106</v>
+        <v>16.77987430507726</v>
       </c>
       <c r="P8" t="n">
-        <v>357.7161178741898</v>
+        <v>357.9147669156354</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17890,28 +17976,28 @@
         <v>0.0285</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1076551745659226</v>
+        <v>-0.1220557502255778</v>
       </c>
       <c r="J9" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K9" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001598678600531978</v>
+        <v>0.002061077509407983</v>
       </c>
       <c r="M9" t="n">
-        <v>16.25257086129039</v>
+        <v>16.28335286503134</v>
       </c>
       <c r="N9" t="n">
-        <v>403.7461942670953</v>
+        <v>403.8705862641098</v>
       </c>
       <c r="O9" t="n">
-        <v>20.09343659673714</v>
+        <v>20.09653169738773</v>
       </c>
       <c r="P9" t="n">
-        <v>369.7569835514241</v>
+        <v>369.8979030780468</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17968,28 +18054,28 @@
         <v>0.0256</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1364052773698077</v>
+        <v>0.1178285329636147</v>
       </c>
       <c r="J10" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K10" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002640998034769915</v>
+        <v>0.001974827962507031</v>
       </c>
       <c r="M10" t="n">
-        <v>15.71928560880501</v>
+        <v>15.76035175751437</v>
       </c>
       <c r="N10" t="n">
-        <v>392.7580387354539</v>
+        <v>393.7452812768605</v>
       </c>
       <c r="O10" t="n">
-        <v>19.81812399636893</v>
+        <v>19.84301593198122</v>
       </c>
       <c r="P10" t="n">
-        <v>366.4760514566001</v>
+        <v>366.6573875997134</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -18046,28 +18132,28 @@
         <v>0.0302</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.09192265344515638</v>
+        <v>-0.1115139779336064</v>
       </c>
       <c r="J11" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K11" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001309303053029343</v>
+        <v>0.001927325518069178</v>
       </c>
       <c r="M11" t="n">
-        <v>15.33888135173876</v>
+        <v>15.38037575842223</v>
       </c>
       <c r="N11" t="n">
-        <v>361.436571235277</v>
+        <v>362.6695302094956</v>
       </c>
       <c r="O11" t="n">
-        <v>19.01148524537936</v>
+        <v>19.0438843256699</v>
       </c>
       <c r="P11" t="n">
-        <v>371.7434631404839</v>
+        <v>371.9328316223168</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -18124,28 +18210,28 @@
         <v>0.051</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1501153131557765</v>
+        <v>-0.175217992876184</v>
       </c>
       <c r="J12" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K12" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002633115269337405</v>
+        <v>0.003629528330095444</v>
       </c>
       <c r="M12" t="n">
-        <v>16.77056224898823</v>
+        <v>16.75174000140739</v>
       </c>
       <c r="N12" t="n">
-        <v>493.0969077341251</v>
+        <v>491.3438526269134</v>
       </c>
       <c r="O12" t="n">
-        <v>22.20578545636531</v>
+        <v>22.16627737413103</v>
       </c>
       <c r="P12" t="n">
-        <v>361.9422167593472</v>
+        <v>362.1836892471861</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -18183,7 +18269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M328"/>
+  <dimension ref="A1:M330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19797,7 +19883,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-38.099943591667454,174.76434169102342</t>
+          <t>-38.09994359166745,174.76434169102342</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -21555,7 +21641,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>-38.097899132268644,174.76513771328587</t>
+          <t>-38.09789913226864,174.76513771328587</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -31430,7 +31516,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>-38.09973624442185,174.76376083592717</t>
+          <t>-38.099736244421855,174.76376083592717</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -33802,7 +33888,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>-38.09659364569323,174.76582951550867</t>
+          <t>-38.096593645693225,174.76582951550867</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -37115,6 +37201,92 @@
         </is>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-38.10219847398818,174.76196092537091</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr"/>
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-38.10043730069413,174.7635503469704</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-38.09989540873434,174.76420671206762</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-38.09924877377534,174.7645696688031</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>-38.098629222776786,174.76500851345241</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>-38.09793258918314,174.76523143763234</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>-38.09729830159462,174.76562903119463</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>-38.09666200538576,174.76602101358492</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>-38.096058685825376,174.7665053904125</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>-38.09598043978466,174.76628619722212</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0245/nzd0245.xlsx
+++ b/data/nzd0245/nzd0245.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M330"/>
+  <dimension ref="A1:M331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13758,6 +13758,45 @@
         </is>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>376.3428571428572</v>
+      </c>
+      <c r="C331" t="n">
+        <v>371.9228571428571</v>
+      </c>
+      <c r="D331" t="n">
+        <v>375.2666666666667</v>
+      </c>
+      <c r="E331" t="n">
+        <v>373.06</v>
+      </c>
+      <c r="F331" t="n">
+        <v>363.4966666666666</v>
+      </c>
+      <c r="G331" t="n">
+        <v>362.2628571428571</v>
+      </c>
+      <c r="H331" t="n">
+        <v>365.3828571428571</v>
+      </c>
+      <c r="I331" t="n">
+        <v>385.09</v>
+      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13769,7 +13808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17257,6 +17296,16 @@
       </c>
       <c r="B348" t="n">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>
@@ -17430,28 +17479,28 @@
         <v>0.0369</v>
       </c>
       <c r="I2" t="n">
-        <v>0.676723194656165</v>
+        <v>0.6676669356392181</v>
       </c>
       <c r="J2" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K2" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04224373022394023</v>
+        <v>0.04148568915696815</v>
       </c>
       <c r="M2" t="n">
-        <v>20.81635839058062</v>
+        <v>20.78017151144824</v>
       </c>
       <c r="N2" t="n">
-        <v>605.5125956366132</v>
+        <v>603.5355879341005</v>
       </c>
       <c r="O2" t="n">
-        <v>24.60716553438476</v>
+        <v>24.56696130851556</v>
       </c>
       <c r="P2" t="n">
-        <v>370.2875299826696</v>
+        <v>370.3728539241573</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17508,28 +17557,28 @@
         <v>0.0376</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5433266307537759</v>
+        <v>0.5515152717948354</v>
       </c>
       <c r="J3" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K3" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05366619166848807</v>
+        <v>0.05557011225054997</v>
       </c>
       <c r="M3" t="n">
-        <v>14.01953950890244</v>
+        <v>14.0031817080947</v>
       </c>
       <c r="N3" t="n">
-        <v>300.6887036127684</v>
+        <v>300.0022201351622</v>
       </c>
       <c r="O3" t="n">
-        <v>17.34037783938886</v>
+        <v>17.32057216535188</v>
       </c>
       <c r="P3" t="n">
-        <v>346.851836748353</v>
+        <v>346.7749310169644</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17586,28 +17635,28 @@
         <v>0.0351</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4636411873334525</v>
+        <v>0.4738263939465146</v>
       </c>
       <c r="J4" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K4" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0367391669154985</v>
+        <v>0.03853681432240297</v>
       </c>
       <c r="M4" t="n">
-        <v>14.72018657513218</v>
+        <v>14.71261702544066</v>
       </c>
       <c r="N4" t="n">
-        <v>323.5940300067863</v>
+        <v>323.0930155930864</v>
       </c>
       <c r="O4" t="n">
-        <v>17.98871952104391</v>
+        <v>17.97478833235837</v>
       </c>
       <c r="P4" t="n">
-        <v>349.4222416826502</v>
+        <v>349.3261761886221</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17664,28 +17713,28 @@
         <v>0.0269</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3125746268348825</v>
+        <v>0.320590056978319</v>
       </c>
       <c r="J5" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K5" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01443061822841718</v>
+        <v>0.01527462449469741</v>
       </c>
       <c r="M5" t="n">
-        <v>15.84740523858244</v>
+        <v>15.82037942341513</v>
       </c>
       <c r="N5" t="n">
-        <v>380.9957718287856</v>
+        <v>379.9761702262595</v>
       </c>
       <c r="O5" t="n">
-        <v>19.51911298775602</v>
+        <v>19.4929774592354</v>
       </c>
       <c r="P5" t="n">
-        <v>354.1505073765234</v>
+        <v>354.0734485534539</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17742,28 +17791,28 @@
         <v>0.0307</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2978592691156899</v>
+        <v>0.2985677228458201</v>
       </c>
       <c r="J6" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K6" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01450022527287476</v>
+        <v>0.01468578140218835</v>
       </c>
       <c r="M6" t="n">
-        <v>15.13499320153313</v>
+        <v>15.08027121068693</v>
       </c>
       <c r="N6" t="n">
-        <v>348.0627238382936</v>
+        <v>346.73270028662</v>
       </c>
       <c r="O6" t="n">
-        <v>18.65643920576201</v>
+        <v>18.62075992774248</v>
       </c>
       <c r="P6" t="n">
-        <v>354.8300188125687</v>
+        <v>354.8232612653441</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17820,28 +17869,28 @@
         <v>0.0359</v>
       </c>
       <c r="I7" t="n">
-        <v>0.366793077084454</v>
+        <v>0.3678415140015328</v>
       </c>
       <c r="J7" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K7" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0251467752829152</v>
+        <v>0.02547572366712236</v>
       </c>
       <c r="M7" t="n">
-        <v>13.26305666060976</v>
+        <v>13.22033380109663</v>
       </c>
       <c r="N7" t="n">
-        <v>294.8369462928599</v>
+        <v>293.7883047362096</v>
       </c>
       <c r="O7" t="n">
-        <v>17.17081670430559</v>
+        <v>17.14025392858022</v>
       </c>
       <c r="P7" t="n">
-        <v>351.2691816011844</v>
+        <v>351.2590094407954</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17898,28 +17947,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08563652111160121</v>
+        <v>0.08929325854254924</v>
       </c>
       <c r="J8" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K8" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00147488142496266</v>
+        <v>0.001615025604866482</v>
       </c>
       <c r="M8" t="n">
-        <v>13.25703282598903</v>
+        <v>13.22568368341521</v>
       </c>
       <c r="N8" t="n">
-        <v>281.5641816941921</v>
+        <v>280.6395956294216</v>
       </c>
       <c r="O8" t="n">
-        <v>16.77987430507726</v>
+        <v>16.75230120399647</v>
       </c>
       <c r="P8" t="n">
-        <v>357.9147669156354</v>
+        <v>357.8792092692765</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17976,28 +18025,28 @@
         <v>0.0285</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1220557502255778</v>
+        <v>-0.1094641766424459</v>
       </c>
       <c r="J9" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K9" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002061077509407983</v>
+        <v>0.001665863661759137</v>
       </c>
       <c r="M9" t="n">
-        <v>16.28335286503134</v>
+        <v>16.27832075592614</v>
       </c>
       <c r="N9" t="n">
-        <v>403.8705862641098</v>
+        <v>403.6162379281166</v>
       </c>
       <c r="O9" t="n">
-        <v>20.09653169738773</v>
+        <v>20.09020253576645</v>
       </c>
       <c r="P9" t="n">
-        <v>369.8979030780468</v>
+        <v>369.7737460404968</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -18057,7 +18106,7 @@
         <v>0.1178285329636147</v>
       </c>
       <c r="J10" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K10" t="n">
         <v>263</v>
@@ -18135,7 +18184,7 @@
         <v>-0.1115139779336064</v>
       </c>
       <c r="J11" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K11" t="n">
         <v>257</v>
@@ -18213,7 +18262,7 @@
         <v>-0.175217992876184</v>
       </c>
       <c r="J12" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K12" t="n">
         <v>207</v>
@@ -18269,7 +18318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M330"/>
+  <dimension ref="A1:M331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37287,6 +37336,61 @@
         </is>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-38.1023025113194,174.76225237017954</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-38.10167853878833,174.76267875064653</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-38.10102576203291,174.76302445585236</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-38.100393568163625,174.76342783672382</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-38.09978865644705,174.76390765999952</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-38.099152842432105,174.76430093075905</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>-38.0985008734941,174.76464896178743</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>-38.09778737374604,174.76482464132133</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0245/nzd0245.xlsx
+++ b/data/nzd0245/nzd0245.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M331"/>
+  <dimension ref="A1:M334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13788,10 +13788,147 @@
       <c r="I331" t="n">
         <v>385.09</v>
       </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>384.97</v>
+      </c>
+      <c r="K331" t="n">
+        <v>392.41</v>
+      </c>
       <c r="L331" t="inlineStr"/>
       <c r="M331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>368.7857142857143</v>
+      </c>
+      <c r="C332" t="n">
+        <v>376.8257142857143</v>
+      </c>
+      <c r="D332" t="n">
+        <v>374.74</v>
+      </c>
+      <c r="E332" t="n">
+        <v>370.93</v>
+      </c>
+      <c r="F332" t="n">
+        <v>349.14</v>
+      </c>
+      <c r="G332" t="n">
+        <v>362.8357142857143</v>
+      </c>
+      <c r="H332" t="n">
+        <v>365.8657142857143</v>
+      </c>
+      <c r="I332" t="n">
+        <v>380.54</v>
+      </c>
+      <c r="J332" t="n">
+        <v>362.82</v>
+      </c>
+      <c r="K332" t="n">
+        <v>365.24</v>
+      </c>
+      <c r="L332" t="n">
+        <v>347.6033333333333</v>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>387.5928571428572</v>
+      </c>
+      <c r="C333" t="n">
+        <v>322.8828571428572</v>
+      </c>
+      <c r="D333" t="n">
+        <v>324.0333333333333</v>
+      </c>
+      <c r="E333" t="n">
+        <v>317.91</v>
+      </c>
+      <c r="F333" t="n">
+        <v>321.5533333333333</v>
+      </c>
+      <c r="G333" t="n">
+        <v>328.9628571428572</v>
+      </c>
+      <c r="H333" t="n">
+        <v>328.6828571428572</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>328.64</v>
+      </c>
+      <c r="K333" t="n">
+        <v>336.99</v>
+      </c>
+      <c r="L333" t="n">
+        <v>356.1088888888889</v>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>360.81</v>
+      </c>
+      <c r="C334" t="n">
+        <v>350.56</v>
+      </c>
+      <c r="D334" t="n">
+        <v>358.9666666666667</v>
+      </c>
+      <c r="E334" t="n">
+        <v>353.52</v>
+      </c>
+      <c r="F334" t="n">
+        <v>343.4166666666667</v>
+      </c>
+      <c r="G334" t="n">
+        <v>348.7</v>
+      </c>
+      <c r="H334" t="n">
+        <v>358.25</v>
+      </c>
+      <c r="I334" t="n">
+        <v>366.74</v>
+      </c>
+      <c r="J334" t="n">
+        <v>365.73</v>
+      </c>
+      <c r="K334" t="n">
+        <v>373.38</v>
+      </c>
+      <c r="L334" t="n">
+        <v>362.7311111111111</v>
+      </c>
+      <c r="M334" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13808,7 +13945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:B352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17306,6 +17443,36 @@
       </c>
       <c r="B349" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -17479,28 +17646,28 @@
         <v>0.0369</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6676669356392181</v>
+        <v>0.6325265994680501</v>
       </c>
       <c r="J2" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K2" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04148568915696815</v>
+        <v>0.03808275458381427</v>
       </c>
       <c r="M2" t="n">
-        <v>20.78017151144824</v>
+        <v>20.72095809720352</v>
       </c>
       <c r="N2" t="n">
-        <v>603.5355879341005</v>
+        <v>600.4267936864057</v>
       </c>
       <c r="O2" t="n">
-        <v>24.56696130851556</v>
+        <v>24.50360776878388</v>
       </c>
       <c r="P2" t="n">
-        <v>370.3728539241573</v>
+        <v>370.705070084973</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17557,28 +17724,28 @@
         <v>0.0376</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5515152717948354</v>
+        <v>0.5277645810967473</v>
       </c>
       <c r="J3" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K3" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05557011225054997</v>
+        <v>0.05123926221087416</v>
       </c>
       <c r="M3" t="n">
-        <v>14.0031817080947</v>
+        <v>14.10038524461093</v>
       </c>
       <c r="N3" t="n">
-        <v>300.0022201351622</v>
+        <v>303.4021188610299</v>
       </c>
       <c r="O3" t="n">
-        <v>17.32057216535188</v>
+        <v>17.41844191829539</v>
       </c>
       <c r="P3" t="n">
-        <v>346.7749310169644</v>
+        <v>346.998884969816</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17635,28 +17802,28 @@
         <v>0.0351</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4738263939465146</v>
+        <v>0.4545019688642491</v>
       </c>
       <c r="J4" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K4" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03853681432240297</v>
+        <v>0.03578960922186625</v>
       </c>
       <c r="M4" t="n">
-        <v>14.71261702544066</v>
+        <v>14.75375404116182</v>
       </c>
       <c r="N4" t="n">
-        <v>323.0930155930864</v>
+        <v>325.3651554517571</v>
       </c>
       <c r="O4" t="n">
-        <v>17.97478833235837</v>
+        <v>18.03788112422734</v>
       </c>
       <c r="P4" t="n">
-        <v>349.3261761886221</v>
+        <v>349.5091240238713</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17713,28 +17880,28 @@
         <v>0.0269</v>
       </c>
       <c r="I5" t="n">
-        <v>0.320590056978319</v>
+        <v>0.2883962869664232</v>
       </c>
       <c r="J5" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K5" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01527462449469741</v>
+        <v>0.01243526217882895</v>
       </c>
       <c r="M5" t="n">
-        <v>15.82037942341513</v>
+        <v>15.90422280139928</v>
       </c>
       <c r="N5" t="n">
-        <v>379.9761702262595</v>
+        <v>383.6494235836271</v>
       </c>
       <c r="O5" t="n">
-        <v>19.4929774592354</v>
+        <v>19.5869707607794</v>
       </c>
       <c r="P5" t="n">
-        <v>354.0734485534539</v>
+        <v>354.3840760173522</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17791,28 +17958,28 @@
         <v>0.0307</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2985677228458201</v>
+        <v>0.2463039691860036</v>
       </c>
       <c r="J6" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K6" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01468578140218835</v>
+        <v>0.01004512882222686</v>
       </c>
       <c r="M6" t="n">
-        <v>15.08027121068693</v>
+        <v>15.21034410078929</v>
       </c>
       <c r="N6" t="n">
-        <v>346.73270028662</v>
+        <v>350.9943313380061</v>
       </c>
       <c r="O6" t="n">
-        <v>18.62075992774248</v>
+        <v>18.73484270918777</v>
       </c>
       <c r="P6" t="n">
-        <v>354.8232612653441</v>
+        <v>355.3234345774611</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17869,28 +18036,28 @@
         <v>0.0359</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3678415140015328</v>
+        <v>0.3396028862121038</v>
       </c>
       <c r="J7" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K7" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02547572366712236</v>
+        <v>0.02198255478665245</v>
       </c>
       <c r="M7" t="n">
-        <v>13.22033380109663</v>
+        <v>13.26099218411556</v>
       </c>
       <c r="N7" t="n">
-        <v>293.7883047362096</v>
+        <v>294.7211516881532</v>
       </c>
       <c r="O7" t="n">
-        <v>17.14025392858022</v>
+        <v>17.16744452992795</v>
       </c>
       <c r="P7" t="n">
-        <v>351.2590094407954</v>
+        <v>351.5339576511978</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17947,28 +18114,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08929325854254924</v>
+        <v>0.07047270715428618</v>
       </c>
       <c r="J8" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K8" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001615025604866482</v>
+        <v>0.001016060187889356</v>
       </c>
       <c r="M8" t="n">
-        <v>13.22568368341521</v>
+        <v>13.23405296969687</v>
       </c>
       <c r="N8" t="n">
-        <v>280.6395956294216</v>
+        <v>281.2816834079757</v>
       </c>
       <c r="O8" t="n">
-        <v>16.75230120399647</v>
+        <v>16.77145442136655</v>
       </c>
       <c r="P8" t="n">
-        <v>357.8792092692765</v>
+        <v>358.0628627887947</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18025,28 +18192,28 @@
         <v>0.0285</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1094641766424459</v>
+        <v>-0.1004271812406121</v>
       </c>
       <c r="J9" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K9" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001665863661759137</v>
+        <v>0.001421018831374354</v>
       </c>
       <c r="M9" t="n">
-        <v>16.27832075592614</v>
+        <v>16.20271498648468</v>
       </c>
       <c r="N9" t="n">
-        <v>403.6162379281166</v>
+        <v>401.3949973372162</v>
       </c>
       <c r="O9" t="n">
-        <v>20.09020253576645</v>
+        <v>20.03484457981185</v>
       </c>
       <c r="P9" t="n">
-        <v>369.7737460404968</v>
+        <v>369.684451934294</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -18103,28 +18270,28 @@
         <v>0.0256</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1178285329636147</v>
+        <v>0.09192443484264511</v>
       </c>
       <c r="J10" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K10" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001974827962507031</v>
+        <v>0.001217707863161221</v>
       </c>
       <c r="M10" t="n">
-        <v>15.76035175751437</v>
+        <v>15.7791718913733</v>
       </c>
       <c r="N10" t="n">
-        <v>393.7452812768605</v>
+        <v>395.2169822422774</v>
       </c>
       <c r="O10" t="n">
-        <v>19.84301593198122</v>
+        <v>19.88006494562524</v>
       </c>
       <c r="P10" t="n">
-        <v>366.6573875997134</v>
+        <v>366.913326208486</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -18181,28 +18348,28 @@
         <v>0.0302</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1115139779336064</v>
+        <v>-0.1175386346481763</v>
       </c>
       <c r="J11" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K11" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001927325518069178</v>
+        <v>0.002174027532383827</v>
       </c>
       <c r="M11" t="n">
-        <v>15.38037575842223</v>
+        <v>15.38807841307506</v>
       </c>
       <c r="N11" t="n">
-        <v>362.6695302094956</v>
+        <v>363.2630613574149</v>
       </c>
       <c r="O11" t="n">
-        <v>19.0438843256699</v>
+        <v>19.05946120322961</v>
       </c>
       <c r="P11" t="n">
-        <v>371.9328316223168</v>
+        <v>371.9921677942986</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -18259,28 +18426,28 @@
         <v>0.051</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.175217992876184</v>
+        <v>-0.1807383464734209</v>
       </c>
       <c r="J12" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K12" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003629528330095444</v>
+        <v>0.003965151252937615</v>
       </c>
       <c r="M12" t="n">
-        <v>16.75174000140739</v>
+        <v>16.59246141179382</v>
       </c>
       <c r="N12" t="n">
-        <v>491.3438526269134</v>
+        <v>484.9369535266927</v>
       </c>
       <c r="O12" t="n">
-        <v>22.16627737413103</v>
+        <v>22.02128410258341</v>
       </c>
       <c r="P12" t="n">
-        <v>362.1836892471861</v>
+        <v>362.2372553892649</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -18318,7 +18485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M331"/>
+  <dimension ref="A1:M334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37382,10 +37549,215 @@
           <t>-38.09778737374604,174.76482464132133</t>
         </is>
       </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>-38.09714741193932,174.7652063403301</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>-38.09647940305807,174.76550948694296</t>
+        </is>
+      </c>
       <c r="L331" t="inlineStr"/>
       <c r="M331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-38.102330543458116,174.76233089846045</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-38.10166035243429,174.7626278041575</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-38.10102771560707,174.76302992849972</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-38.10040146896133,174.7634499696077</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-38.09984190904704,174.7640568395621</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-38.09915071756476,174.76429497827257</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-38.098499082467285,174.76464394451995</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-38.097804250710475,174.76487191897306</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>-38.097229570586656,174.7654364925945</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>-38.096580181429374,174.7657917978059</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>-38.096005179690266,174.76635550175112</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-38.10226078095593,174.76213546854632</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-38.10186044346806,174.7631883356456</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-38.101215801529996,174.7635568280048</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-38.100598134380874,174.76400090326425</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-38.09994423460006,174.76434349212946</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-38.09927635974799,174.7646469474459</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-38.09863700148473,174.76503030450175</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>-38.09735634992595,174.76579164501865</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>-38.09668496497156,174.76608533124784</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>-38.09597363146076,174.76626712491927</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-38.102360128168904,174.76241377629165</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-38.10175778057917,174.76290073630543</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-38.101086223795214,174.7631938309565</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-38.10046604762082,174.7636308775322</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-38.09986313832025,174.764116310554</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-38.099203150297946,174.76444186079917</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-38.09852733085587,174.76472307784047</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>-38.097855437867324,174.7650153106615</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>-38.0972187768586,174.76540625585756</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>-38.09654998879232,174.76570721876374</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>-38.095949068715996,174.76619831688186</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0245/nzd0245.xlsx
+++ b/data/nzd0245/nzd0245.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M334"/>
+  <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13934,6 +13934,49 @@
         </is>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>352.0642857142857</v>
+      </c>
+      <c r="C335" t="n">
+        <v>342.3942857142857</v>
+      </c>
+      <c r="D335" t="n">
+        <v>340.9266666666667</v>
+      </c>
+      <c r="E335" t="n">
+        <v>334.62</v>
+      </c>
+      <c r="F335" t="n">
+        <v>340.7866666666667</v>
+      </c>
+      <c r="G335" t="n">
+        <v>338.5842857142857</v>
+      </c>
+      <c r="H335" t="n">
+        <v>352.0142857142857</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>351.56</v>
+      </c>
+      <c r="K335" t="n">
+        <v>354.5</v>
+      </c>
+      <c r="L335" t="n">
+        <v>358.8711111111111</v>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13945,7 +13988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B352"/>
+  <dimension ref="A1:B353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17473,6 +17516,16 @@
       </c>
       <c r="B352" t="n">
         <v>0.77</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.22</v>
       </c>
     </row>
   </sheetData>
@@ -17646,28 +17699,28 @@
         <v>0.0369</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6325265994680501</v>
+        <v>0.6058868735032902</v>
       </c>
       <c r="J2" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K2" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03808275458381427</v>
+        <v>0.03506146610689098</v>
       </c>
       <c r="M2" t="n">
-        <v>20.72095809720352</v>
+        <v>20.78461949161247</v>
       </c>
       <c r="N2" t="n">
-        <v>600.4267936864057</v>
+        <v>602.9298014415012</v>
       </c>
       <c r="O2" t="n">
-        <v>24.50360776878388</v>
+        <v>24.55462892086747</v>
       </c>
       <c r="P2" t="n">
-        <v>370.705070084973</v>
+        <v>370.9574319139841</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17724,28 +17777,28 @@
         <v>0.0376</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5277645810967473</v>
+        <v>0.5146880565197868</v>
       </c>
       <c r="J3" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K3" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05123926221087416</v>
+        <v>0.04904135515886043</v>
       </c>
       <c r="M3" t="n">
-        <v>14.10038524461093</v>
+        <v>14.122302055901</v>
       </c>
       <c r="N3" t="n">
-        <v>303.4021188610299</v>
+        <v>303.5056101695213</v>
       </c>
       <c r="O3" t="n">
-        <v>17.41844191829539</v>
+        <v>17.42141240455323</v>
       </c>
       <c r="P3" t="n">
-        <v>346.998884969816</v>
+        <v>347.1223468454921</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17802,28 +17855,28 @@
         <v>0.0351</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4545019688642491</v>
+        <v>0.4400842839222657</v>
       </c>
       <c r="J4" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K4" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03578960922186625</v>
+        <v>0.03373966249917237</v>
       </c>
       <c r="M4" t="n">
-        <v>14.75375404116182</v>
+        <v>14.77880626080945</v>
       </c>
       <c r="N4" t="n">
-        <v>325.3651554517571</v>
+        <v>325.6791678423018</v>
       </c>
       <c r="O4" t="n">
-        <v>18.03788112422734</v>
+        <v>18.04658327335958</v>
       </c>
       <c r="P4" t="n">
-        <v>349.5091240238713</v>
+        <v>349.6458242617726</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17880,28 +17933,28 @@
         <v>0.0269</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2883962869664232</v>
+        <v>0.2689714733927125</v>
       </c>
       <c r="J5" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K5" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01243526217882895</v>
+        <v>0.01084090315792019</v>
       </c>
       <c r="M5" t="n">
-        <v>15.90422280139928</v>
+        <v>15.9643103448594</v>
       </c>
       <c r="N5" t="n">
-        <v>383.6494235836271</v>
+        <v>384.9761494393761</v>
       </c>
       <c r="O5" t="n">
-        <v>19.5869707607794</v>
+        <v>19.62080909237374</v>
       </c>
       <c r="P5" t="n">
-        <v>354.3840760173522</v>
+        <v>354.5718288911746</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17958,28 +18011,28 @@
         <v>0.0307</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2463039691860036</v>
+        <v>0.2315507171065939</v>
       </c>
       <c r="J6" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K6" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01004512882222686</v>
+        <v>0.008916044291277569</v>
       </c>
       <c r="M6" t="n">
-        <v>15.21034410078929</v>
+        <v>15.23821421390375</v>
       </c>
       <c r="N6" t="n">
-        <v>350.9943313380061</v>
+        <v>351.303759778898</v>
       </c>
       <c r="O6" t="n">
-        <v>18.73484270918777</v>
+        <v>18.7430989907992</v>
       </c>
       <c r="P6" t="n">
-        <v>355.3234345774611</v>
+        <v>355.4649254101312</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18036,28 +18089,28 @@
         <v>0.0359</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3396028862121038</v>
+        <v>0.3250359027285357</v>
       </c>
       <c r="J7" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K7" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02198255478665245</v>
+        <v>0.0202088313679587</v>
       </c>
       <c r="M7" t="n">
-        <v>13.26099218411556</v>
+        <v>13.30186004259906</v>
       </c>
       <c r="N7" t="n">
-        <v>294.7211516881532</v>
+        <v>295.3353374258925</v>
       </c>
       <c r="O7" t="n">
-        <v>17.16744452992795</v>
+        <v>17.18532331455805</v>
       </c>
       <c r="P7" t="n">
-        <v>351.5339576511978</v>
+        <v>351.6760449381294</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18114,28 +18167,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07047270715428618</v>
+        <v>0.0651753776171793</v>
       </c>
       <c r="J8" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K8" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001016060187889356</v>
+        <v>0.0008748959470440409</v>
       </c>
       <c r="M8" t="n">
-        <v>13.23405296969687</v>
+        <v>13.21744398981747</v>
       </c>
       <c r="N8" t="n">
-        <v>281.2816834079757</v>
+        <v>280.4935152730106</v>
       </c>
       <c r="O8" t="n">
-        <v>16.77145442136655</v>
+        <v>16.7479406278208</v>
       </c>
       <c r="P8" t="n">
-        <v>358.0628627887947</v>
+        <v>358.1146525054825</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18195,7 +18248,7 @@
         <v>-0.1004271812406121</v>
       </c>
       <c r="J9" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K9" t="n">
         <v>281</v>
@@ -18270,28 +18323,28 @@
         <v>0.0256</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09192443484264511</v>
+        <v>0.07951451173707423</v>
       </c>
       <c r="J10" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K10" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001217707863161221</v>
+        <v>0.0009156127560969729</v>
       </c>
       <c r="M10" t="n">
-        <v>15.7791718913733</v>
+        <v>15.7884894092622</v>
       </c>
       <c r="N10" t="n">
-        <v>395.2169822422774</v>
+        <v>394.9032726307108</v>
       </c>
       <c r="O10" t="n">
-        <v>19.88006494562524</v>
+        <v>19.87217332429221</v>
       </c>
       <c r="P10" t="n">
-        <v>366.913326208486</v>
+        <v>367.0360502742733</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -18348,28 +18401,28 @@
         <v>0.0302</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1175386346481763</v>
+        <v>-0.1279586445929682</v>
       </c>
       <c r="J11" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K11" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002174027532383827</v>
+        <v>0.002590316300604467</v>
       </c>
       <c r="M11" t="n">
-        <v>15.38807841307506</v>
+        <v>15.38367398161838</v>
       </c>
       <c r="N11" t="n">
-        <v>363.2630613574149</v>
+        <v>362.6632930294679</v>
       </c>
       <c r="O11" t="n">
-        <v>19.05946120322961</v>
+        <v>19.04372056688156</v>
       </c>
       <c r="P11" t="n">
-        <v>371.9921677942986</v>
+        <v>372.0941868472458</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -18426,28 +18479,28 @@
         <v>0.051</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1807383464734209</v>
+        <v>-0.179616445584815</v>
       </c>
       <c r="J12" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K12" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003965151252937615</v>
+        <v>0.003951719750651672</v>
       </c>
       <c r="M12" t="n">
-        <v>16.59246141179382</v>
+        <v>16.51980684728494</v>
       </c>
       <c r="N12" t="n">
-        <v>484.9369535266927</v>
+        <v>482.6468790842535</v>
       </c>
       <c r="O12" t="n">
-        <v>22.02128410258341</v>
+        <v>21.9692257279189</v>
       </c>
       <c r="P12" t="n">
-        <v>362.2372553892649</v>
+        <v>362.2263132271447</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -18485,7 +18538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M334"/>
+  <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37763,6 +37816,69 @@
         </is>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-38.10239256900942,174.76250465547855</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-38.1017880697572,174.76298558797518</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-38.10115313946445,174.76338128691</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-38.10053615279051,174.7638272684501</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-38.09987289363689,174.7641436388195</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-38.09924067177686,174.7645469721091</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-38.09855046047472,174.76478787190905</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>-38.09727133593303,174.76555349118394</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>-38.09662001781024,174.76590339237052</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>-38.09596338599877,174.76623842411163</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0245/nzd0245.xlsx
+++ b/data/nzd0245/nzd0245.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M335"/>
+  <dimension ref="A1:M336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13977,6 +13977,51 @@
         </is>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>345.9128571428571</v>
+      </c>
+      <c r="C336" t="n">
+        <v>346.1528571428572</v>
+      </c>
+      <c r="D336" t="n">
+        <v>353.0266666666667</v>
+      </c>
+      <c r="E336" t="n">
+        <v>338.8200000000001</v>
+      </c>
+      <c r="F336" t="n">
+        <v>328.8266666666667</v>
+      </c>
+      <c r="G336" t="n">
+        <v>344.7528571428572</v>
+      </c>
+      <c r="H336" t="n">
+        <v>347.3328571428572</v>
+      </c>
+      <c r="I336" t="n">
+        <v>348.5</v>
+      </c>
+      <c r="J336" t="n">
+        <v>341.14</v>
+      </c>
+      <c r="K336" t="n">
+        <v>344.0700000000001</v>
+      </c>
+      <c r="L336" t="n">
+        <v>340.6144444444445</v>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13988,7 +14033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B353"/>
+  <dimension ref="A1:B354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17526,6 +17571,16 @@
       </c>
       <c r="B353" t="n">
         <v>-0.22</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -18538,7 +18593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M335"/>
+  <dimension ref="A1:M336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37879,6 +37934,73 @@
         </is>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-38.102415386714995,174.76256857675682</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-38.101774128052774,174.76294653185352</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-38.10110825703742,174.7632555542215</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-38.10052057389315,174.76378362599232</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-38.09991725613492,174.7642679149754</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-38.0992177911577,174.7644828751278</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-38.09856782488602,174.76483651572963</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-38.0979230936587,174.76520483736593</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-38.097309985462715,174.7656617617525</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>-38.09665870424685,174.76601176597586</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>-38.09603110235139,174.7664281197389</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0245/nzd0245.xlsx
+++ b/data/nzd0245/nzd0245.xlsx
@@ -17754,28 +17754,28 @@
         <v>0.0369</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6058868735032902</v>
+        <v>0.575151040930023</v>
       </c>
       <c r="J2" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03506146610689098</v>
+        <v>0.03162382557603327</v>
       </c>
       <c r="M2" t="n">
-        <v>20.78461949161247</v>
+        <v>20.86989412983207</v>
       </c>
       <c r="N2" t="n">
-        <v>602.9298014415012</v>
+        <v>607.1605094333345</v>
       </c>
       <c r="O2" t="n">
-        <v>24.55462892086747</v>
+        <v>24.64062721266109</v>
       </c>
       <c r="P2" t="n">
-        <v>370.9574319139841</v>
+        <v>371.2492451139086</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17832,28 +17832,28 @@
         <v>0.0376</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5146880565197868</v>
+        <v>0.5045158582908141</v>
       </c>
       <c r="J3" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04904135515886043</v>
+        <v>0.04746267008143523</v>
       </c>
       <c r="M3" t="n">
-        <v>14.122302055901</v>
+        <v>14.12798454596404</v>
       </c>
       <c r="N3" t="n">
-        <v>303.5056101695213</v>
+        <v>303.1325588157153</v>
       </c>
       <c r="O3" t="n">
-        <v>17.42141240455323</v>
+        <v>17.41070242166339</v>
       </c>
       <c r="P3" t="n">
-        <v>347.1223468454921</v>
+        <v>347.2185939963366</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17910,28 +17910,28 @@
         <v>0.0351</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4400842839222657</v>
+        <v>0.4344255905753161</v>
       </c>
       <c r="J4" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K4" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03373966249917237</v>
+        <v>0.03313705930991062</v>
       </c>
       <c r="M4" t="n">
-        <v>14.77880626080945</v>
+        <v>14.75544085700813</v>
       </c>
       <c r="N4" t="n">
-        <v>325.6791678423018</v>
+        <v>324.7179324929514</v>
       </c>
       <c r="O4" t="n">
-        <v>18.04658327335958</v>
+        <v>18.01993153408057</v>
       </c>
       <c r="P4" t="n">
-        <v>349.6458242617726</v>
+        <v>349.6995911547472</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17988,28 +17988,28 @@
         <v>0.0269</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2689714733927125</v>
+        <v>0.2528809410053536</v>
       </c>
       <c r="J5" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K5" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01084090315792019</v>
+        <v>0.009621427716724029</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9643103448594</v>
+        <v>16.0045958332286</v>
       </c>
       <c r="N5" t="n">
-        <v>384.9761494393761</v>
+        <v>385.4530413484315</v>
       </c>
       <c r="O5" t="n">
-        <v>19.62080909237374</v>
+        <v>19.63295803867648</v>
       </c>
       <c r="P5" t="n">
-        <v>354.5718288911746</v>
+        <v>354.7276937603526</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18066,28 +18066,28 @@
         <v>0.0307</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2315507171065939</v>
+        <v>0.2087032635891196</v>
       </c>
       <c r="J6" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K6" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008916044291277569</v>
+        <v>0.007230318756597964</v>
       </c>
       <c r="M6" t="n">
-        <v>15.23821421390375</v>
+        <v>15.31325529400685</v>
       </c>
       <c r="N6" t="n">
-        <v>351.303759778898</v>
+        <v>353.9467333517381</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7430989907992</v>
+        <v>18.81347212376647</v>
       </c>
       <c r="P6" t="n">
-        <v>355.4649254101312</v>
+        <v>355.6845282214361</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18144,28 +18144,28 @@
         <v>0.0359</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3250359027285357</v>
+        <v>0.3148162092585898</v>
       </c>
       <c r="J7" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K7" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0202088313679587</v>
+        <v>0.01906614792388539</v>
       </c>
       <c r="M7" t="n">
-        <v>13.30186004259906</v>
+        <v>13.31628062768407</v>
       </c>
       <c r="N7" t="n">
-        <v>295.3353374258925</v>
+        <v>295.1186671674184</v>
       </c>
       <c r="O7" t="n">
-        <v>17.18532331455805</v>
+        <v>17.17901822478277</v>
       </c>
       <c r="P7" t="n">
-        <v>351.6760449381294</v>
+        <v>351.7759440238842</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18222,28 +18222,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0651753776171793</v>
+        <v>0.05684300464671344</v>
       </c>
       <c r="J8" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K8" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0008748959470440409</v>
+        <v>0.0006691905963457367</v>
       </c>
       <c r="M8" t="n">
-        <v>13.21744398981747</v>
+        <v>13.21853852586384</v>
       </c>
       <c r="N8" t="n">
-        <v>280.4935152730106</v>
+        <v>280.0416564531071</v>
       </c>
       <c r="O8" t="n">
-        <v>16.7479406278208</v>
+        <v>16.73444520900251</v>
       </c>
       <c r="P8" t="n">
-        <v>358.1146525054825</v>
+        <v>358.1962931591133</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18300,28 +18300,28 @@
         <v>0.0285</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1004271812406121</v>
+        <v>-0.1129400178031885</v>
       </c>
       <c r="J9" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K9" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001421018831374354</v>
+        <v>0.001804252107450943</v>
       </c>
       <c r="M9" t="n">
-        <v>16.20271498648468</v>
+        <v>16.22254983803625</v>
       </c>
       <c r="N9" t="n">
-        <v>401.3949973372162</v>
+        <v>401.1816848171187</v>
       </c>
       <c r="O9" t="n">
-        <v>20.03484457981185</v>
+        <v>20.02952033417472</v>
       </c>
       <c r="P9" t="n">
-        <v>369.684451934294</v>
+        <v>369.8087619393073</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -18378,28 +18378,28 @@
         <v>0.0256</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07951451173707423</v>
+        <v>0.06009168609100662</v>
       </c>
       <c r="J10" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K10" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0009156127560969729</v>
+        <v>0.000523262646756617</v>
       </c>
       <c r="M10" t="n">
-        <v>15.7884894092622</v>
+        <v>15.83736621276729</v>
       </c>
       <c r="N10" t="n">
-        <v>394.9032726307108</v>
+        <v>396.3096154942318</v>
       </c>
       <c r="O10" t="n">
-        <v>19.87217332429221</v>
+        <v>19.90752660413221</v>
       </c>
       <c r="P10" t="n">
-        <v>367.0360502742733</v>
+        <v>367.2285473931897</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -18456,28 +18456,28 @@
         <v>0.0302</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1279586445929682</v>
+        <v>-0.1456430908258778</v>
       </c>
       <c r="J11" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K11" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002590316300604467</v>
+        <v>0.003358307421231777</v>
       </c>
       <c r="M11" t="n">
-        <v>15.38367398161838</v>
+        <v>15.41664961365989</v>
       </c>
       <c r="N11" t="n">
-        <v>362.6632930294679</v>
+        <v>363.5767165797008</v>
       </c>
       <c r="O11" t="n">
-        <v>19.04372056688156</v>
+        <v>19.06768776175289</v>
       </c>
       <c r="P11" t="n">
-        <v>372.0941868472458</v>
+        <v>372.2677050522587</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -18534,28 +18534,28 @@
         <v>0.051</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.179616445584815</v>
+        <v>-0.1938260810984384</v>
       </c>
       <c r="J12" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K12" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003951719750651672</v>
+        <v>0.004627156637922347</v>
       </c>
       <c r="M12" t="n">
-        <v>16.51980684728494</v>
+        <v>16.52492951742405</v>
       </c>
       <c r="N12" t="n">
-        <v>482.6468790842535</v>
+        <v>481.7057566651621</v>
       </c>
       <c r="O12" t="n">
-        <v>21.9692257279189</v>
+        <v>21.94779616875376</v>
       </c>
       <c r="P12" t="n">
-        <v>362.2263132271447</v>
+        <v>362.3652302929651</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">

--- a/data/nzd0245/nzd0245.xlsx
+++ b/data/nzd0245/nzd0245.xlsx
@@ -17745,13 +17745,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.025</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0314</v>
+        <v>0.02</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0369</v>
+        <v>0.0255</v>
       </c>
       <c r="I2" t="n">
         <v>0.5751186498705219</v>
@@ -17823,13 +17823,13 @@
         <v>0.9000000000009576</v>
       </c>
       <c r="F3" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0347</v>
+        <v>0.0389</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0376</v>
+        <v>0.0459</v>
       </c>
       <c r="I3" t="n">
         <v>0.504477924318381</v>
@@ -17901,13 +17901,13 @@
         <v>0.8000000000019152</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0298</v>
+        <v>0.0412</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0351</v>
+        <v>0.0496</v>
       </c>
       <c r="I4" t="n">
         <v>0.4344327450824877</v>
@@ -17979,13 +17979,13 @@
         <v>0.700000000001295</v>
       </c>
       <c r="F5" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0245</v>
+        <v>0.0293</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0269</v>
+        <v>0.0307</v>
       </c>
       <c r="I5" t="n">
         <v>0.2528809410053536</v>
@@ -18060,10 +18060,10 @@
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0284</v>
+        <v>0.029</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0307</v>
+        <v>0.032</v>
       </c>
       <c r="I6" t="n">
         <v>0.2087165859956056</v>
@@ -18135,13 +18135,13 @@
         <v>0.5000000000000548</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0336</v>
+        <v>0.037</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0359</v>
+        <v>0.0428</v>
       </c>
       <c r="I7" t="n">
         <v>0.3147704606137991</v>
@@ -18216,10 +18216,10 @@
         <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0296</v>
+        <v>0.0341</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0363</v>
+        <v>0.0379</v>
       </c>
       <c r="I8" t="n">
         <v>0.05681278490942618</v>
@@ -18291,13 +18291,13 @@
         <v>0.3000000000003923</v>
       </c>
       <c r="F9" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0245</v>
+        <v>0.0293</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0285</v>
+        <v>0.0317</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1129400178031882</v>
@@ -18369,13 +18369,13 @@
         <v>0.1999999999997722</v>
       </c>
       <c r="F10" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02</v>
+        <v>0.0279</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0256</v>
+        <v>0.0313</v>
       </c>
       <c r="I10" t="n">
         <v>0.0600916860910067</v>
@@ -18453,7 +18453,7 @@
         <v>0.0248</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0302</v>
+        <v>0.0267</v>
       </c>
       <c r="I11" t="n">
         <v>-0.145643090825878</v>
@@ -18525,13 +18525,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0369</v>
+        <v>0.0279</v>
       </c>
       <c r="H12" t="n">
-        <v>0.051</v>
+        <v>0.0315</v>
       </c>
       <c r="I12" t="n">
         <v>-0.1938086240889292</v>
